--- a/PythonResources/Data/Consumption/Sympheny/base_CD_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CD_hea.xlsx
@@ -439,7 +439,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>8.476435036994358</v>
+        <v>8.476435036994356</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -519,7 +519,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>60.26607333457987</v>
+        <v>60.26607333457986</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>59.9688699942734</v>
+        <v>59.96886999427339</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -535,7 +535,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>79.45100174611726</v>
+        <v>79.45100174611724</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>367.6230356180957</v>
+        <v>367.6230356180956</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>62.54380093208314</v>
+        <v>62.54380093208313</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>6.387782513154495</v>
+        <v>6.387782513154494</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>50.90434395754925</v>
+        <v>50.90434395754924</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>166.7750052606252</v>
+        <v>166.7750052606251</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>494.2543422870444</v>
+        <v>494.2543422870443</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>251.435315411844</v>
+        <v>251.4353154118439</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>229.4110268564439</v>
+        <v>229.4110268564438</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>43.04863044972924</v>
+        <v>43.04863044972923</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>94.5995799705874</v>
+        <v>94.59957997058738</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>40.53793775288368</v>
+        <v>40.53793775288367</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>21.51871756802619</v>
+        <v>21.51871756802618</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>203.5366640661497</v>
+        <v>203.5366640661496</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>74.36501763408441</v>
+        <v>74.3650176340844</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>48.85631957872797</v>
+        <v>48.85631957872796</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>103.8470849102998</v>
+        <v>103.8470849102997</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>57.63511600630924</v>
+        <v>57.63511600630923</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>0.4398087770086943</v>
+        <v>0.4398087770086942</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>7.682483026790797</v>
+        <v>7.682483026790796</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>21.01093682502077</v>
+        <v>21.01093682502076</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>278.1572396459468</v>
+        <v>278.1572396459467</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>247.9193421610238</v>
+        <v>247.9193421610237</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>248.9119737689698</v>
+        <v>248.9119737689697</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>504.4622996346577</v>
+        <v>504.4622996346576</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>378.4780938190733</v>
+        <v>378.4780938190731</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>433.8321793172735</v>
+        <v>433.8321793172734</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>405</v>
       </c>
       <c r="B405">
-        <v>287.6424838122212</v>
+        <v>287.6424838122211</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>479.9609746604919</v>
+        <v>479.9609746604918</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>493.1125375204198</v>
+        <v>493.1125375204197</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>416.3780405387584</v>
+        <v>416.3780405387583</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>266.6603558703009</v>
+        <v>266.6603558703008</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>254.3800932083132</v>
+        <v>254.3800932083131</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>445.8703653013269</v>
+        <v>445.8703653013268</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>510</v>
       </c>
       <c r="B510">
-        <v>558.0556143325806</v>
+        <v>558.0556143325805</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>533.7726272822175</v>
+        <v>533.7726272822174</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>587.9767020247107</v>
+        <v>587.9767020247106</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>585.0999167092109</v>
+        <v>585.0999167092108</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>669.244128761347</v>
+        <v>669.2441287613469</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>533.080686559938</v>
+        <v>533.0806865599379</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>220.2727787999445</v>
+        <v>220.2727787999444</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>316.5079296230931</v>
+        <v>316.507929623093</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>93.08825658486666</v>
+        <v>93.08825658486661</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>622</v>
       </c>
       <c r="B622">
-        <v>116.8485660913292</v>
+        <v>116.8485660913291</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>240.5008349593892</v>
+        <v>240.5008349593891</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>625</v>
       </c>
       <c r="B625">
-        <v>310.7602204128668</v>
+        <v>310.7602204128667</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>629</v>
       </c>
       <c r="B629">
-        <v>469.694696176185</v>
+        <v>469.6946961761849</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>496.3547824211303</v>
+        <v>496.3547824211302</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>491.8107159666861</v>
+        <v>491.810715966686</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>634</v>
       </c>
       <c r="B634">
-        <v>294.5346354284201</v>
+        <v>294.53463542842</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>376.6950496198576</v>
+        <v>376.6950496198575</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>651</v>
       </c>
       <c r="B651">
-        <v>566.719673448526</v>
+        <v>566.7196734485259</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>653</v>
       </c>
       <c r="B653">
-        <v>593.244947015687</v>
+        <v>593.2449470156869</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>594.5974698591091</v>
+        <v>594.597469859109</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>674</v>
       </c>
       <c r="B674">
-        <v>513.2646882808513</v>
+        <v>513.2646882808511</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>713</v>
       </c>
       <c r="B713">
-        <v>214.5227250214089</v>
+        <v>214.5227250214088</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>190.1916450136015</v>
+        <v>190.1916450136014</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>439.0854776852781</v>
+        <v>439.085477685278</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>675.3265250977246</v>
+        <v>675.3265250977245</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>460.8014555080065</v>
+        <v>460.8014555080064</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>470.7975224946676</v>
+        <v>470.7975224946675</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>254.6400472196058</v>
+        <v>254.6400472196057</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>761</v>
       </c>
       <c r="B761">
-        <v>212.4656594010449</v>
+        <v>212.4656594010448</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>763</v>
       </c>
       <c r="B763">
-        <v>172.1500072388547</v>
+        <v>172.1500072388546</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>604.097074506278</v>
+        <v>604.0970745062779</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>365.4440524456486</v>
+        <v>365.4440524456485</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>332.0831899727503</v>
+        <v>332.0831899727502</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>783</v>
       </c>
       <c r="B783">
-        <v>326.4078693090734</v>
+        <v>326.4078693090733</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>787</v>
       </c>
       <c r="B787">
-        <v>253.5974469995681</v>
+        <v>253.597446999568</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>788</v>
       </c>
       <c r="B788">
-        <v>251.2144570771088</v>
+        <v>251.2144570771087</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>803</v>
       </c>
       <c r="B803">
-        <v>363.0062875460635</v>
+        <v>363.0062875460634</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>809</v>
       </c>
       <c r="B809">
-        <v>460.2569295181737</v>
+        <v>460.2569295181736</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>538.2484081846536</v>
+        <v>538.2484081846535</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>546.6331706007547</v>
+        <v>546.6331706007546</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>565.7305586930439</v>
+        <v>565.7305586930438</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>834</v>
       </c>
       <c r="B834">
-        <v>472.7783896449797</v>
+        <v>472.7783896449796</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>845</v>
       </c>
       <c r="B845">
-        <v>668.8068667716643</v>
+        <v>668.8068667716642</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>848</v>
       </c>
       <c r="B848">
-        <v>724.8722356806957</v>
+        <v>724.8722356806956</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>289.5708912466129</v>
+        <v>289.5708912466128</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>859</v>
       </c>
       <c r="B859">
-        <v>291.544959148828</v>
+        <v>291.5449591488279</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>466.9700147297505</v>
+        <v>466.9700147297504</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>495.966463294904</v>
+        <v>495.9664632949039</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>269.7833208582762</v>
+        <v>269.7833208582761</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>502.2504925058805</v>
+        <v>502.2504925058804</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>928</v>
       </c>
       <c r="B928">
-        <v>188.6460176628054</v>
+        <v>188.6460176628053</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>68.67102834524472</v>
+        <v>68.67102834524471</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>36.08762472370729</v>
+        <v>36.08762472370728</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>48.17443119307462</v>
+        <v>48.17443119307461</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>981</v>
       </c>
       <c r="B981">
-        <v>44.36421461943847</v>
+        <v>44.36421461943846</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>47.84572271611206</v>
+        <v>47.84572271611205</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>984</v>
       </c>
       <c r="B984">
-        <v>67.85737522060923</v>
+        <v>67.85737522060921</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>991</v>
       </c>
       <c r="B991">
-        <v>75.12758847668123</v>
+        <v>75.12758847668121</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>1026</v>
       </c>
       <c r="B1026">
-        <v>330.7253918506323</v>
+        <v>330.7253918506322</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>1035</v>
       </c>
       <c r="B1035">
-        <v>436.8660507094958</v>
+        <v>436.8660507094957</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>269.4527367266662</v>
+        <v>269.4527367266661</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>1052</v>
       </c>
       <c r="B1052">
-        <v>154.6426555518499</v>
+        <v>154.6426555518498</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>256.8486305669577</v>
+        <v>256.8486305669576</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>1063</v>
       </c>
       <c r="B1063">
-        <v>501.0717607883846</v>
+        <v>501.0717607883845</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>1076</v>
       </c>
       <c r="B1076">
-        <v>46.85026883406378</v>
+        <v>46.85026883406376</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>39.42984201712591</v>
+        <v>39.4298420171259</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>231.2910775694564</v>
+        <v>231.2910775694563</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>1102</v>
       </c>
       <c r="B1102">
-        <v>118.8228684503752</v>
+        <v>118.8228684503751</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9199,7 +9199,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>265.2779397809354</v>
+        <v>265.2779397809353</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9247,7 +9247,7 @@
         <v>1113</v>
       </c>
       <c r="B1113">
-        <v>391.9277099253197</v>
+        <v>391.9277099253196</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9303,7 +9303,7 @@
         <v>1120</v>
       </c>
       <c r="B1120">
-        <v>387.2734487603389</v>
+        <v>387.2734487603388</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>408.9009191293915</v>
+        <v>408.9009191293914</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>444.6004884908073</v>
+        <v>444.6004884908072</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>1133</v>
       </c>
       <c r="B1133">
-        <v>506.28549456617</v>
+        <v>506.2854945661699</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>124.5642766332703</v>
+        <v>124.5642766332702</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9727,7 +9727,7 @@
         <v>1173</v>
       </c>
       <c r="B1173">
-        <v>311.3029879764676</v>
+        <v>311.3029879764675</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>1176</v>
       </c>
       <c r="B1176">
-        <v>375.0224932022173</v>
+        <v>375.0224932022172</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9879,7 +9879,7 @@
         <v>1192</v>
       </c>
       <c r="B1192">
-        <v>74.05579838119282</v>
+        <v>74.0557983811928</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
@@ -10167,7 +10167,7 @@
         <v>1228</v>
       </c>
       <c r="B1228">
-        <v>63.54586063534285</v>
+        <v>63.54586063534284</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>195.8898545253979</v>
+        <v>195.8898545253978</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10359,7 +10359,7 @@
         <v>1252</v>
       </c>
       <c r="B1252">
-        <v>56.33719229738974</v>
+        <v>56.33719229738973</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>51.80772078067091</v>
+        <v>51.8077207806709</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>1260</v>
       </c>
       <c r="B1260">
-        <v>48.82050629780355</v>
+        <v>48.82050629780354</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10527,7 +10527,7 @@
         <v>1273</v>
       </c>
       <c r="B1273">
-        <v>44.02592858093245</v>
+        <v>44.02592858093244</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>182.2289342002766</v>
+        <v>182.2289342002765</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10607,7 +10607,7 @@
         <v>1283</v>
       </c>
       <c r="B1283">
-        <v>65.81469938824353</v>
+        <v>65.81469938824351</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>0.7508254345803898</v>
+        <v>0.7508254345803896</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10823,7 +10823,7 @@
         <v>1310</v>
       </c>
       <c r="B1310">
-        <v>0.624654542513178</v>
+        <v>0.6246545425131779</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -10983,7 +10983,7 @@
         <v>1330</v>
       </c>
       <c r="B1330">
-        <v>4.118175621061492</v>
+        <v>4.118175621061491</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>0.9997884027100866</v>
+        <v>0.9997884027100864</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>0.5371200846858074</v>
+        <v>0.5371200846858073</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11095,7 +11095,7 @@
         <v>1344</v>
       </c>
       <c r="B1344">
-        <v>0.9195839446306749</v>
+        <v>0.9195839446306747</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>1354</v>
       </c>
       <c r="B1354">
-        <v>64.26226985864012</v>
+        <v>64.26226985864011</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>1355</v>
       </c>
       <c r="B1355">
-        <v>53.2590525247777</v>
+        <v>53.25905252477769</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
@@ -11247,7 +11247,7 @@
         <v>1363</v>
       </c>
       <c r="B1363">
-        <v>6.147293987178729</v>
+        <v>6.147293987178728</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
@@ -11423,7 +11423,7 @@
         <v>1385</v>
       </c>
       <c r="B1385">
-        <v>2.827537658163113</v>
+        <v>2.827537658163112</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -11527,7 +11527,7 @@
         <v>1398</v>
       </c>
       <c r="B1398">
-        <v>6.458255518088052</v>
+        <v>6.458255518088051</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>89.1628572316158</v>
+        <v>89.16285723161579</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11559,7 +11559,7 @@
         <v>1402</v>
       </c>
       <c r="B1402">
-        <v>15.49566225555678</v>
+        <v>15.49566225555677</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>0.6338862802310103</v>
+        <v>0.6338862802310102</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>299.2519068667131</v>
+        <v>299.251906866713</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>327.4339110154267</v>
+        <v>327.4339110154266</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>385.3145619379264</v>
+        <v>385.3145619379263</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>376.0045742527715</v>
+        <v>376.0045742527714</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12303,7 +12303,7 @@
         <v>1495</v>
       </c>
       <c r="B1495">
-        <v>439.2607341663976</v>
+        <v>439.2607341663975</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1501</v>
       </c>
       <c r="B1501">
-        <v>80.54940269191611</v>
+        <v>80.5494026919161</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12359,7 +12359,7 @@
         <v>1502</v>
       </c>
       <c r="B1502">
-        <v>64.28524955878156</v>
+        <v>64.28524955878154</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12519,7 +12519,7 @@
         <v>1522</v>
       </c>
       <c r="B1522">
-        <v>184.0028931972937</v>
+        <v>184.0028931972936</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>86.06280160673268</v>
+        <v>86.06280160673266</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>296.4765241305902</v>
+        <v>296.4765241305901</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12727,7 +12727,7 @@
         <v>1548</v>
       </c>
       <c r="B1548">
-        <v>72.53666465229173</v>
+        <v>72.53666465229172</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>21.90527240659973</v>
+        <v>21.90527240659972</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12815,7 +12815,7 @@
         <v>1559</v>
       </c>
       <c r="B1559">
-        <v>58.02786050521931</v>
+        <v>58.0278605052193</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>151.0175719533361</v>
+        <v>151.017571953336</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -13015,7 +13015,7 @@
         <v>1584</v>
       </c>
       <c r="B1584">
-        <v>0.3658610925336636</v>
+        <v>0.3658610925336635</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>6.17975453542086</v>
+        <v>6.179754535420859</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>195.3840139126684</v>
+        <v>195.3840139126683</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13239,7 +13239,7 @@
         <v>1612</v>
       </c>
       <c r="B1612">
-        <v>440.3072908454572</v>
+        <v>440.3072908454571</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>333.9773080956186</v>
+        <v>333.9773080956185</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13447,7 +13447,7 @@
         <v>1638</v>
       </c>
       <c r="B1638">
-        <v>446.9828629640854</v>
+        <v>446.9828629640853</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>436.4753870149602</v>
+        <v>436.4753870149601</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>68.65285794084772</v>
+        <v>68.65285794084771</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13567,7 +13567,7 @@
         <v>1653</v>
       </c>
       <c r="B1653">
-        <v>207.6414170336405</v>
+        <v>207.6414170336404</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>344.2098834104794</v>
+        <v>344.2098834104793</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13711,7 +13711,7 @@
         <v>1671</v>
       </c>
       <c r="B1671">
-        <v>64.96077830289596</v>
+        <v>64.96077830289595</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>191.2830708686802</v>
+        <v>191.2830708686801</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>325.8747730897484</v>
+        <v>325.8747730897483</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13863,7 +13863,7 @@
         <v>1690</v>
       </c>
       <c r="B1690">
-        <v>168.5058828149591</v>
+        <v>168.505882814959</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13903,7 +13903,7 @@
         <v>1695</v>
       </c>
       <c r="B1695">
-        <v>54.92206948010957</v>
+        <v>54.92206948010956</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13927,7 +13927,7 @@
         <v>1698</v>
       </c>
       <c r="B1698">
-        <v>9.262220036563544</v>
+        <v>9.262220036563543</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -13959,7 +13959,7 @@
         <v>1702</v>
       </c>
       <c r="B1702">
-        <v>50.18006284615354</v>
+        <v>50.18006284615353</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>499.7696461636123</v>
+        <v>499.7696461636122</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>90.23510744863492</v>
+        <v>90.23510744863491</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14135,7 +14135,7 @@
         <v>1724</v>
       </c>
       <c r="B1724">
-        <v>21.60788150082852</v>
+        <v>21.60788150082851</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>246.0067605627199</v>
+        <v>246.0067605627198</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>510.0924873583808</v>
+        <v>510.0924873583807</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14303,7 +14303,7 @@
         <v>1745</v>
       </c>
       <c r="B1745">
-        <v>60.69647746195792</v>
+        <v>60.69647746195791</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>424.6400061896604</v>
+        <v>424.6400061896603</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14599,7 +14599,7 @@
         <v>1782</v>
       </c>
       <c r="B1782">
-        <v>535.9161488589866</v>
+        <v>535.9161488589865</v>
       </c>
     </row>
     <row r="1783" spans="1:2">
@@ -14623,7 +14623,7 @@
         <v>1785</v>
       </c>
       <c r="B1785">
-        <v>155.1353958891512</v>
+        <v>155.1353958891511</v>
       </c>
     </row>
     <row r="1786" spans="1:2">
@@ -14631,7 +14631,7 @@
         <v>1786</v>
       </c>
       <c r="B1786">
-        <v>110.5827365918535</v>
+        <v>110.5827365918534</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14711,7 +14711,7 @@
         <v>1796</v>
       </c>
       <c r="B1796">
-        <v>26.94612064796835</v>
+        <v>26.94612064796834</v>
       </c>
     </row>
     <row r="1797" spans="1:2">
@@ -15015,7 +15015,7 @@
         <v>1834</v>
       </c>
       <c r="B1834">
-        <v>45.34222198255524</v>
+        <v>45.34222198255523</v>
       </c>
     </row>
     <row r="1835" spans="1:2">
@@ -15183,7 +15183,7 @@
         <v>1855</v>
       </c>
       <c r="B1855">
-        <v>406.653943475975</v>
+        <v>406.6539434759749</v>
       </c>
     </row>
     <row r="1856" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>4.074750552585444</v>
+        <v>4.074750552585443</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>5.898693547923856</v>
+        <v>5.898693547923855</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15503,7 +15503,7 @@
         <v>1895</v>
       </c>
       <c r="B1895">
-        <v>84.90180068707575</v>
+        <v>84.90180068707573</v>
       </c>
     </row>
     <row r="1896" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>294.0235195369947</v>
+        <v>294.0235195369946</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15591,7 +15591,7 @@
         <v>1906</v>
       </c>
       <c r="B1906">
-        <v>90.46751278229337</v>
+        <v>90.46751278229335</v>
       </c>
     </row>
     <row r="1907" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>15.61075125243909</v>
+        <v>15.61075125243908</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>5.57043640036083</v>
+        <v>5.570436400360829</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15679,7 +15679,7 @@
         <v>1917</v>
       </c>
       <c r="B1917">
-        <v>16.43142342845052</v>
+        <v>16.43142342845051</v>
       </c>
     </row>
     <row r="1918" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>0.9184304170225038</v>
+        <v>0.9184304170225037</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>211.6309930829374</v>
+        <v>211.6309930829373</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>69.5027258537306</v>
+        <v>69.50272585373058</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>74.68622349245724</v>
+        <v>74.68622349245723</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16287,7 +16287,7 @@
         <v>1993</v>
       </c>
       <c r="B1993">
-        <v>200.5320997777936</v>
+        <v>200.5320997777935</v>
       </c>
     </row>
     <row r="1994" spans="1:2">
@@ -16423,7 +16423,7 @@
         <v>2010</v>
       </c>
       <c r="B2010">
-        <v>99.20923572348397</v>
+        <v>99.20923572348396</v>
       </c>
     </row>
     <row r="2011" spans="1:2">
@@ -16807,7 +16807,7 @@
         <v>2058</v>
       </c>
       <c r="B2058">
-        <v>58.26048564215675</v>
+        <v>58.26048564215674</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -16895,7 +16895,7 @@
         <v>2069</v>
       </c>
       <c r="B2069">
-        <v>184.887967734051</v>
+        <v>184.8879677340509</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -16983,7 +16983,7 @@
         <v>2080</v>
       </c>
       <c r="B2080">
-        <v>59.906123484896</v>
+        <v>59.90612348489599</v>
       </c>
     </row>
     <row r="2081" spans="1:2">
@@ -16991,7 +16991,7 @@
         <v>2081</v>
       </c>
       <c r="B2081">
-        <v>57.38515571743498</v>
+        <v>57.38515571743497</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -17359,7 +17359,7 @@
         <v>2127</v>
       </c>
       <c r="B2127">
-        <v>0.75176238269099</v>
+        <v>0.7517623826909899</v>
       </c>
     </row>
     <row r="2128" spans="1:2">
@@ -17439,7 +17439,7 @@
         <v>2137</v>
       </c>
       <c r="B2137">
-        <v>77.08779118805725</v>
+        <v>77.08779118805724</v>
       </c>
     </row>
     <row r="2138" spans="1:2">
@@ -17663,7 +17663,7 @@
         <v>2165</v>
       </c>
       <c r="B2165">
-        <v>253.2078090536678</v>
+        <v>253.2078090536677</v>
       </c>
     </row>
     <row r="2166" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>18.13438596635193</v>
+        <v>18.13438596635192</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>0.8368526280559251</v>
+        <v>0.836852628055925</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18191,7 +18191,7 @@
         <v>2231</v>
       </c>
       <c r="B2231">
-        <v>8.107581689155962</v>
+        <v>8.10758168915596</v>
       </c>
     </row>
     <row r="2232" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>5.841931549155927</v>
+        <v>5.841931549155926</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18415,7 +18415,7 @@
         <v>2259</v>
       </c>
       <c r="B2259">
-        <v>21.58175128702147</v>
+        <v>21.58175128702146</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>135.5977564825849</v>
+        <v>135.5977564825848</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -18591,7 +18591,7 @@
         <v>2281</v>
       </c>
       <c r="B2281">
-        <v>38.3410186328705</v>
+        <v>38.34101863287049</v>
       </c>
     </row>
     <row r="2282" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>0.1875531557596372</v>
+        <v>0.1875531557596371</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -18847,7 +18847,7 @@
         <v>2313</v>
       </c>
       <c r="B2313">
-        <v>1.351080933911895</v>
+        <v>1.351080933911894</v>
       </c>
     </row>
     <row r="2314" spans="1:2">
@@ -18855,7 +18855,7 @@
         <v>2314</v>
       </c>
       <c r="B2314">
-        <v>0.8874894421158322</v>
+        <v>0.8874894421158321</v>
       </c>
     </row>
     <row r="2315" spans="1:2">
@@ -18887,7 +18887,7 @@
         <v>2318</v>
       </c>
       <c r="B2318">
-        <v>0.5427763557319714</v>
+        <v>0.5427763557319712</v>
       </c>
     </row>
     <row r="2319" spans="1:2">
@@ -18975,7 +18975,7 @@
         <v>2329</v>
       </c>
       <c r="B2329">
-        <v>32.2900483039686</v>
+        <v>32.29004830396859</v>
       </c>
     </row>
     <row r="2330" spans="1:2">
@@ -19055,7 +19055,7 @@
         <v>2339</v>
       </c>
       <c r="B2339">
-        <v>0.6819382077299245</v>
+        <v>0.6819382077299244</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>0.7176840823154489</v>
+        <v>0.7176840823154488</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19095,7 +19095,7 @@
         <v>2344</v>
       </c>
       <c r="B2344">
-        <v>0.9615162557713016</v>
+        <v>0.9615162557713014</v>
       </c>
     </row>
     <row r="2345" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>26.39781111102645</v>
+        <v>26.39781111102644</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19207,7 +19207,7 @@
         <v>2358</v>
       </c>
       <c r="B2358">
-        <v>518.7084828239857</v>
+        <v>518.7084828239856</v>
       </c>
     </row>
     <row r="2359" spans="1:2">
@@ -19239,7 +19239,7 @@
         <v>2362</v>
       </c>
       <c r="B2362">
-        <v>131.2158169267282</v>
+        <v>131.2158169267281</v>
       </c>
     </row>
     <row r="2363" spans="1:2">
@@ -19263,7 +19263,7 @@
         <v>2365</v>
       </c>
       <c r="B2365">
-        <v>72.12243804624779</v>
+        <v>72.12243804624778</v>
       </c>
     </row>
     <row r="2366" spans="1:2">
@@ -19271,7 +19271,7 @@
         <v>2366</v>
       </c>
       <c r="B2366">
-        <v>46.87721085464791</v>
+        <v>46.8772108546479</v>
       </c>
     </row>
     <row r="2367" spans="1:2">
@@ -19295,7 +19295,7 @@
         <v>2369</v>
       </c>
       <c r="B2369">
-        <v>78.67550647071548</v>
+        <v>78.67550647071546</v>
       </c>
     </row>
     <row r="2370" spans="1:2">
@@ -19359,7 +19359,7 @@
         <v>2377</v>
       </c>
       <c r="B2377">
-        <v>255.5878389586366</v>
+        <v>255.5878389586365</v>
       </c>
     </row>
     <row r="2378" spans="1:2">
@@ -19407,7 +19407,7 @@
         <v>2383</v>
       </c>
       <c r="B2383">
-        <v>382.270433059351</v>
+        <v>382.2704330593509</v>
       </c>
     </row>
     <row r="2384" spans="1:2">
@@ -19527,7 +19527,7 @@
         <v>2398</v>
       </c>
       <c r="B2398">
-        <v>78.74276627408825</v>
+        <v>78.74276627408824</v>
       </c>
     </row>
     <row r="2399" spans="1:2">
@@ -19543,7 +19543,7 @@
         <v>2400</v>
       </c>
       <c r="B2400">
-        <v>192.0484258861443</v>
+        <v>192.0484258861442</v>
       </c>
     </row>
     <row r="2401" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>121.8583517333101</v>
+        <v>121.85835173331</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>4.289701307858818</v>
+        <v>4.289701307858817</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>98.74184603102685</v>
+        <v>98.74184603102684</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19783,7 +19783,7 @@
         <v>2430</v>
       </c>
       <c r="B2430">
-        <v>413.6864761196926</v>
+        <v>413.6864761196925</v>
       </c>
     </row>
     <row r="2431" spans="1:2">
@@ -19951,7 +19951,7 @@
         <v>2451</v>
       </c>
       <c r="B2451">
-        <v>5.326624741877684</v>
+        <v>5.326624741877683</v>
       </c>
     </row>
     <row r="2452" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>2.72051895847242</v>
+        <v>2.720518958472419</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -19975,7 +19975,7 @@
         <v>2454</v>
       </c>
       <c r="B2454">
-        <v>155.3405544083453</v>
+        <v>155.3405544083452</v>
       </c>
     </row>
     <row r="2455" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>0.4568889571418775</v>
+        <v>0.4568889571418774</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>104.1109367664066</v>
+        <v>104.1109367664065</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20247,7 +20247,7 @@
         <v>2488</v>
       </c>
       <c r="B2488">
-        <v>0.6271163392379333</v>
+        <v>0.6271163392379332</v>
       </c>
     </row>
     <row r="2489" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>6.401228319337239</v>
+        <v>6.401228319337237</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20423,7 +20423,7 @@
         <v>2510</v>
       </c>
       <c r="B2510">
-        <v>0.8446424562635436</v>
+        <v>0.8446424562635435</v>
       </c>
     </row>
     <row r="2511" spans="1:2">
@@ -20607,7 +20607,7 @@
         <v>2533</v>
       </c>
       <c r="B2533">
-        <v>0.8833131798149081</v>
+        <v>0.883313179814908</v>
       </c>
     </row>
     <row r="2534" spans="1:2">
@@ -20615,7 +20615,7 @@
         <v>2534</v>
       </c>
       <c r="B2534">
-        <v>0.75470481591915</v>
+        <v>0.7547048159191498</v>
       </c>
     </row>
     <row r="2535" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>49.27422129559673</v>
+        <v>49.27422129559672</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20751,7 +20751,7 @@
         <v>2551</v>
       </c>
       <c r="B2551">
-        <v>116.1951935177376</v>
+        <v>116.1951935177375</v>
       </c>
     </row>
     <row r="2552" spans="1:2">
@@ -20903,7 +20903,7 @@
         <v>2570</v>
       </c>
       <c r="B2570">
-        <v>180.0942633688751</v>
+        <v>180.094263368875</v>
       </c>
     </row>
     <row r="2571" spans="1:2">
@@ -21039,7 +21039,7 @@
         <v>2587</v>
       </c>
       <c r="B2587">
-        <v>1.004465816487122</v>
+        <v>1.004465816487121</v>
       </c>
     </row>
     <row r="2588" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>6.817181113798899</v>
+        <v>6.817181113798898</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>0.3967038886423836</v>
+        <v>0.3967038886423835</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21279,7 +21279,7 @@
         <v>2617</v>
       </c>
       <c r="B2617">
-        <v>66.045566098949</v>
+        <v>66.04556609894898</v>
       </c>
     </row>
     <row r="2618" spans="1:2">
@@ -21439,7 +21439,7 @@
         <v>2637</v>
       </c>
       <c r="B2637">
-        <v>1.039402815005941</v>
+        <v>1.03940281500594</v>
       </c>
     </row>
     <row r="2638" spans="1:2">
@@ -21479,7 +21479,7 @@
         <v>2642</v>
       </c>
       <c r="B2642">
-        <v>142.4149991413019</v>
+        <v>142.4149991413018</v>
       </c>
     </row>
     <row r="2643" spans="1:2">
@@ -21519,7 +21519,7 @@
         <v>2647</v>
       </c>
       <c r="B2647">
-        <v>80.26107940408109</v>
+        <v>80.26107940408107</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -21535,7 +21535,7 @@
         <v>2649</v>
       </c>
       <c r="B2649">
-        <v>6.719274871913304</v>
+        <v>6.719274871913303</v>
       </c>
     </row>
     <row r="2650" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>2.050486175546036</v>
+        <v>2.050486175546035</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>119.4496008665525</v>
+        <v>119.4496008665524</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21735,7 +21735,7 @@
         <v>2674</v>
       </c>
       <c r="B2674">
-        <v>7.896453312904329</v>
+        <v>7.896453312904328</v>
       </c>
     </row>
     <row r="2675" spans="1:2">
@@ -21783,7 +21783,7 @@
         <v>2680</v>
       </c>
       <c r="B2680">
-        <v>0.8846056230954047</v>
+        <v>0.8846056230954046</v>
       </c>
     </row>
     <row r="2681" spans="1:2">
@@ -21815,7 +21815,7 @@
         <v>2684</v>
       </c>
       <c r="B2684">
-        <v>3.962598860188117</v>
+        <v>3.962598860188116</v>
       </c>
     </row>
     <row r="2685" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>75.1655997903956</v>
+        <v>75.16559979039559</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>71.57937741160832</v>
+        <v>71.57937741160831</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -21967,7 +21967,7 @@
         <v>2703</v>
       </c>
       <c r="B2703">
-        <v>82.00655189614032</v>
+        <v>82.00655189614031</v>
       </c>
     </row>
     <row r="2704" spans="1:2">
@@ -22071,7 +22071,7 @@
         <v>2716</v>
       </c>
       <c r="B2716">
-        <v>158.5959787136644</v>
+        <v>158.5959787136643</v>
       </c>
     </row>
     <row r="2717" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>69.89304958586132</v>
+        <v>69.89304958586131</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>55.0772183572665</v>
+        <v>55.07721835726649</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>0.7058498737743037</v>
+        <v>0.7058498737743036</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>0.7510091901216305</v>
+        <v>0.7510091901216304</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>287.1937920520307</v>
+        <v>287.1937920520306</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -22695,7 +22695,7 @@
         <v>2794</v>
       </c>
       <c r="B2794">
-        <v>0.848346874192223</v>
+        <v>0.8483468741922229</v>
       </c>
     </row>
     <row r="2795" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>38.75131808699639</v>
+        <v>38.75131808699638</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22903,7 +22903,7 @@
         <v>2820</v>
       </c>
       <c r="B2820">
-        <v>0.9099005844422654</v>
+        <v>0.9099005844422652</v>
       </c>
     </row>
     <row r="2821" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>104.5045311713288</v>
+        <v>104.5045311713287</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23111,7 +23111,7 @@
         <v>2846</v>
       </c>
       <c r="B2846">
-        <v>0.8945671076995038</v>
+        <v>0.8945671076995036</v>
       </c>
     </row>
     <row r="2847" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>35.88006302199616</v>
+        <v>35.88006302199615</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23207,7 +23207,7 @@
         <v>2858</v>
       </c>
       <c r="B2858">
-        <v>82.29214962331581</v>
+        <v>82.29214962331579</v>
       </c>
     </row>
     <row r="2859" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>59.76218457496787</v>
+        <v>59.76218457496786</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>8.706906101797641</v>
+        <v>8.706906101797639</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>0.5410149987896167</v>
+        <v>0.5410149987896166</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>78.34415211910877</v>
+        <v>78.34415211910876</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -23439,7 +23439,7 @@
         <v>2887</v>
       </c>
       <c r="B2887">
-        <v>78.37757338352273</v>
+        <v>78.37757338352272</v>
       </c>
     </row>
     <row r="2888" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>0.8757636698589919</v>
+        <v>0.8757636698589918</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23503,7 +23503,7 @@
         <v>2895</v>
       </c>
       <c r="B2895">
-        <v>0.4764104190271097</v>
+        <v>0.4764104190271096</v>
       </c>
     </row>
     <row r="2896" spans="1:2">
@@ -23519,7 +23519,7 @@
         <v>2897</v>
       </c>
       <c r="B2897">
-        <v>0.0380324148291601</v>
+        <v>0.03803241482916</v>
       </c>
     </row>
     <row r="2898" spans="1:2">
@@ -24159,7 +24159,7 @@
         <v>2977</v>
       </c>
       <c r="B2977">
-        <v>66.3026333605108</v>
+        <v>66.30263336051078</v>
       </c>
     </row>
     <row r="2978" spans="1:2">
@@ -24239,7 +24239,7 @@
         <v>2987</v>
       </c>
       <c r="B2987">
-        <v>0.8673525310494113</v>
+        <v>0.8673525310494112</v>
       </c>
     </row>
     <row r="2988" spans="1:2">
@@ -24247,7 +24247,7 @@
         <v>2988</v>
       </c>
       <c r="B2988">
-        <v>0.8176007915262613</v>
+        <v>0.8176007915262612</v>
       </c>
     </row>
     <row r="2989" spans="1:2">
@@ -24351,7 +24351,7 @@
         <v>3001</v>
       </c>
       <c r="B3001">
-        <v>8.434467264258053</v>
+        <v>8.434467264258052</v>
       </c>
     </row>
     <row r="3002" spans="1:2">
@@ -24359,7 +24359,7 @@
         <v>3002</v>
       </c>
       <c r="B3002">
-        <v>42.10012947878489</v>
+        <v>42.10012947878488</v>
       </c>
     </row>
     <row r="3003" spans="1:2">
@@ -24407,7 +24407,7 @@
         <v>3008</v>
       </c>
       <c r="B3008">
-        <v>1.573782685480265</v>
+        <v>1.573782685480264</v>
       </c>
     </row>
     <row r="3009" spans="1:2">
@@ -24439,7 +24439,7 @@
         <v>3012</v>
       </c>
       <c r="B3012">
-        <v>0.7059231415339691</v>
+        <v>0.705923141533969</v>
       </c>
     </row>
     <row r="3013" spans="1:2">
@@ -24455,7 +24455,7 @@
         <v>3014</v>
       </c>
       <c r="B3014">
-        <v>0.6164837219552998</v>
+        <v>0.6164837219552997</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
@@ -24751,7 +24751,7 @@
         <v>3051</v>
       </c>
       <c r="B3051">
-        <v>0.1253532238693466</v>
+        <v>0.1253532238693465</v>
       </c>
     </row>
     <row r="3052" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>0.8969380524022741</v>
+        <v>0.896938052402274</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25007,7 +25007,7 @@
         <v>3083</v>
       </c>
       <c r="B3083">
-        <v>0.3985443747651769</v>
+        <v>0.3985443747651768</v>
       </c>
     </row>
     <row r="3084" spans="1:2">
@@ -25023,7 +25023,7 @@
         <v>3085</v>
       </c>
       <c r="B3085">
-        <v>0.6640784586339021</v>
+        <v>0.664078458633902</v>
       </c>
     </row>
     <row r="3086" spans="1:2">
@@ -25159,7 +25159,7 @@
         <v>3102</v>
       </c>
       <c r="B3102">
-        <v>82.06751067218188</v>
+        <v>82.06751067218187</v>
       </c>
     </row>
     <row r="3103" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>0.6254751414214298</v>
+        <v>0.6254751414214297</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25391,7 +25391,7 @@
         <v>3131</v>
       </c>
       <c r="B3131">
-        <v>0.8169384509788867</v>
+        <v>0.8169384509788866</v>
       </c>
     </row>
     <row r="3132" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>0.7958783661406824</v>
+        <v>0.7958783661406823</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25607,7 +25607,7 @@
         <v>3158</v>
       </c>
       <c r="B3158">
-        <v>0.814426832177559</v>
+        <v>0.8144268321775588</v>
       </c>
     </row>
     <row r="3159" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>0.9625420044066162</v>
+        <v>0.962542004406616</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25775,7 +25775,7 @@
         <v>3179</v>
       </c>
       <c r="B3179">
-        <v>1.295628962686782</v>
+        <v>1.295628962686781</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>0.8430833183378652</v>
+        <v>0.8430833183378651</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -26095,7 +26095,7 @@
         <v>3219</v>
       </c>
       <c r="B3219">
-        <v>55.47395155301275</v>
+        <v>55.47395155301274</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
@@ -26111,7 +26111,7 @@
         <v>3221</v>
       </c>
       <c r="B3221">
-        <v>83.62459710058961</v>
+        <v>83.6245971005896</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -26167,7 +26167,7 @@
         <v>3228</v>
       </c>
       <c r="B3228">
-        <v>0.633282553891368</v>
+        <v>0.6332825538913679</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -26183,7 +26183,7 @@
         <v>3230</v>
       </c>
       <c r="B3230">
-        <v>0.8430188427093598</v>
+        <v>0.8430188427093597</v>
       </c>
     </row>
     <row r="3231" spans="1:2">
@@ -26263,7 +26263,7 @@
         <v>3240</v>
       </c>
       <c r="B3240">
-        <v>5.670367763123575</v>
+        <v>5.670367763123574</v>
       </c>
     </row>
     <row r="3241" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>0.8449648344060711</v>
+        <v>0.844964834406071</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>0.6290887073281242</v>
+        <v>0.6290887073281241</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>0.1197790127140078</v>
+        <v>0.1197790127140077</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>1.717591764938271</v>
+        <v>1.71759176493827</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>3310</v>
       </c>
       <c r="B3310">
-        <v>1.529649117768253</v>
+        <v>1.529649117768252</v>
       </c>
     </row>
     <row r="3311" spans="1:2">
@@ -26863,7 +26863,7 @@
         <v>3315</v>
       </c>
       <c r="B3315">
-        <v>104.9683747042181</v>
+        <v>104.968374704218</v>
       </c>
     </row>
     <row r="3316" spans="1:2">
@@ -26895,7 +26895,7 @@
         <v>3319</v>
       </c>
       <c r="B3319">
-        <v>46.75254429622214</v>
+        <v>46.75254429622213</v>
       </c>
     </row>
     <row r="3320" spans="1:2">
@@ -26903,7 +26903,7 @@
         <v>3320</v>
       </c>
       <c r="B3320">
-        <v>15.37684246435231</v>
+        <v>15.3768424643523</v>
       </c>
     </row>
     <row r="3321" spans="1:2">
@@ -26935,7 +26935,7 @@
         <v>3324</v>
       </c>
       <c r="B3324">
-        <v>0.6191594605382778</v>
+        <v>0.6191594605382776</v>
       </c>
     </row>
     <row r="3325" spans="1:2">
@@ -26943,7 +26943,7 @@
         <v>3325</v>
       </c>
       <c r="B3325">
-        <v>0.6530150269244364</v>
+        <v>0.6530150269244362</v>
       </c>
     </row>
     <row r="3326" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>48.01980984378728</v>
+        <v>48.01980984378727</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27159,7 +27159,7 @@
         <v>3352</v>
       </c>
       <c r="B3352">
-        <v>0.896507237975442</v>
+        <v>0.8965072379754419</v>
       </c>
     </row>
     <row r="3353" spans="1:2">
@@ -27383,7 +27383,7 @@
         <v>3380</v>
       </c>
       <c r="B3380">
-        <v>0.6741571716534659</v>
+        <v>0.6741571716534658</v>
       </c>
     </row>
     <row r="3381" spans="1:2">
@@ -27399,7 +27399,7 @@
         <v>3382</v>
       </c>
       <c r="B3382">
-        <v>3.948692639403637</v>
+        <v>3.948692639403636</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -27479,7 +27479,7 @@
         <v>3392</v>
       </c>
       <c r="B3392">
-        <v>50.37788579724995</v>
+        <v>50.37788579724994</v>
       </c>
     </row>
     <row r="3393" spans="1:2">
@@ -27511,7 +27511,7 @@
         <v>3396</v>
       </c>
       <c r="B3396">
-        <v>0.3632175917649383</v>
+        <v>0.3632175917649382</v>
       </c>
     </row>
     <row r="3397" spans="1:2">
@@ -27623,7 +27623,7 @@
         <v>3410</v>
       </c>
       <c r="B3410">
-        <v>80.79177244088905</v>
+        <v>80.79177244088903</v>
       </c>
     </row>
     <row r="3411" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>0.7693818135353101</v>
+        <v>0.76938181353531</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27711,7 +27711,7 @@
         <v>3421</v>
       </c>
       <c r="B3421">
-        <v>0.8605708672147877</v>
+        <v>0.8605708672147876</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -27751,7 +27751,7 @@
         <v>3426</v>
       </c>
       <c r="B3426">
-        <v>0.4746168242705023</v>
+        <v>0.4746168242705022</v>
       </c>
     </row>
     <row r="3427" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>1.049288101139988</v>
+        <v>1.049288101139987</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>0.8424795919982229</v>
+        <v>0.8424795919982228</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>0.701556383057915</v>
+        <v>0.7015563830579149</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>0.8008429895356056</v>
+        <v>0.8008429895356055</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28239,7 +28239,7 @@
         <v>3487</v>
       </c>
       <c r="B3487">
-        <v>0.0263568163341385</v>
+        <v>0.0263568163341384</v>
       </c>
     </row>
     <row r="3488" spans="1:2">
@@ -28263,7 +28263,7 @@
         <v>3490</v>
       </c>
       <c r="B3490">
-        <v>0.871851171492863</v>
+        <v>0.8718511714928628</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>0.9151465560343036</v>
+        <v>0.9151465560343034</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28479,7 +28479,7 @@
         <v>3517</v>
       </c>
       <c r="B3517">
-        <v>0.5530983177136239</v>
+        <v>0.5530983177136238</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -28503,7 +28503,7 @@
         <v>3520</v>
       </c>
       <c r="B3520">
-        <v>0.7399369662810048</v>
+        <v>0.7399369662810047</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>2.225168237429744</v>
+        <v>2.225168237429743</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29287,7 +29287,7 @@
         <v>3618</v>
       </c>
       <c r="B3618">
-        <v>0.5072063237696439</v>
+        <v>0.5072063237696438</v>
       </c>
     </row>
     <row r="3619" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>0.5141843452001705</v>
+        <v>0.5141843452001704</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>0.8376146127564446</v>
+        <v>0.8376146127564444</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29631,7 +29631,7 @@
         <v>3661</v>
       </c>
       <c r="B3661">
-        <v>0.4804225615463835</v>
+        <v>0.4804225615463834</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -29775,7 +29775,7 @@
         <v>3679</v>
       </c>
       <c r="B3679">
-        <v>1.503832489972575</v>
+        <v>1.503832489972574</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -29807,7 +29807,7 @@
         <v>3683</v>
       </c>
       <c r="B3683">
-        <v>0.7061458755233516</v>
+        <v>0.7061458755233515</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>0.6182069796626284</v>
+        <v>0.6182069796626283</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -29823,7 +29823,7 @@
         <v>3685</v>
       </c>
       <c r="B3685">
-        <v>0.6216212572630331</v>
+        <v>0.621621257263033</v>
       </c>
     </row>
     <row r="3686" spans="1:2">
@@ -29839,7 +29839,7 @@
         <v>3687</v>
       </c>
       <c r="B3687">
-        <v>0.8209066328423613</v>
+        <v>0.8209066328423612</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -29975,7 +29975,7 @@
         <v>3704</v>
       </c>
       <c r="B3704">
-        <v>2.52516161402427</v>
+        <v>2.525161614024269</v>
       </c>
     </row>
     <row r="3705" spans="1:2">
@@ -30151,7 +30151,7 @@
         <v>3726</v>
       </c>
       <c r="B3726">
-        <v>16.09050854272771</v>
+        <v>16.0905085427277</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -30551,7 +30551,7 @@
         <v>3776</v>
       </c>
       <c r="B3776">
-        <v>1.347525982212933</v>
+        <v>1.347525982212932</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -30751,7 +30751,7 @@
         <v>3801</v>
       </c>
       <c r="B3801">
-        <v>0.7735434222843013</v>
+        <v>0.7735434222843012</v>
       </c>
     </row>
     <row r="3802" spans="1:2">
@@ -30919,7 +30919,7 @@
         <v>3822</v>
       </c>
       <c r="B3822">
-        <v>3.859780747694557</v>
+        <v>3.859780747694556</v>
       </c>
     </row>
     <row r="3823" spans="1:2">
@@ -30967,7 +30967,7 @@
         <v>3828</v>
       </c>
       <c r="B3828">
-        <v>0.3371782299798778</v>
+        <v>0.3371782299798777</v>
       </c>
     </row>
     <row r="3829" spans="1:2">
@@ -30999,7 +30999,7 @@
         <v>3832</v>
       </c>
       <c r="B3832">
-        <v>0.9855744573350114</v>
+        <v>0.9855744573350111</v>
       </c>
     </row>
     <row r="3833" spans="1:2">
@@ -31127,7 +31127,7 @@
         <v>3848</v>
       </c>
       <c r="B3848">
-        <v>0.5626495028635972</v>
+        <v>0.5626495028635971</v>
       </c>
     </row>
     <row r="3849" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>0.8179231696687888</v>
+        <v>0.8179231696687886</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>0.8194061091244151</v>
+        <v>0.819406109124415</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31199,7 +31199,7 @@
         <v>3857</v>
       </c>
       <c r="B3857">
-        <v>0.6858184682818008</v>
+        <v>0.6858184682818007</v>
       </c>
     </row>
     <row r="3858" spans="1:2">
@@ -31359,7 +31359,7 @@
         <v>3877</v>
       </c>
       <c r="B3877">
-        <v>0.6091745302510858</v>
+        <v>0.6091745302510857</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -31495,7 +31495,7 @@
         <v>3894</v>
       </c>
       <c r="B3894">
-        <v>28.95351365798962</v>
+        <v>28.95351365798961</v>
       </c>
     </row>
     <row r="3895" spans="1:2">
@@ -32087,7 +32087,7 @@
         <v>3968</v>
       </c>
       <c r="B3968">
-        <v>0.2336057526328037</v>
+        <v>0.2336057526328036</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>0.3605858138377594</v>
+        <v>0.3605858138377593</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32319,7 +32319,7 @@
         <v>3997</v>
       </c>
       <c r="B3997">
-        <v>0.7053194151943267</v>
+        <v>0.7053194151943266</v>
       </c>
     </row>
     <row r="3998" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>0.4768207184812356</v>
+        <v>0.4768207184812355</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32543,7 +32543,7 @@
         <v>4025</v>
       </c>
       <c r="B4025">
-        <v>0.707432457383075</v>
+        <v>0.7074324573830749</v>
       </c>
     </row>
     <row r="4026" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>1.605739151535898</v>
+        <v>1.605739151535897</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -33031,7 +33031,7 @@
         <v>4086</v>
       </c>
       <c r="B4086">
-        <v>0.8796409997004815</v>
+        <v>0.8796409997004814</v>
       </c>
     </row>
     <row r="4087" spans="1:2">
@@ -33047,7 +33047,7 @@
         <v>4088</v>
       </c>
       <c r="B4088">
-        <v>0.5067667172116519</v>
+        <v>0.5067667172116518</v>
       </c>
     </row>
     <row r="4089" spans="1:2">
@@ -33127,7 +33127,7 @@
         <v>4098</v>
       </c>
       <c r="B4098">
-        <v>1.875733776613049</v>
+        <v>1.875733776613048</v>
       </c>
     </row>
     <row r="4099" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>0.7592708627014937</v>
+        <v>0.7592708627014936</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33439,7 +33439,7 @@
         <v>4137</v>
       </c>
       <c r="B4137">
-        <v>0.4560478432609194</v>
+        <v>0.4560478432609193</v>
       </c>
     </row>
     <row r="4138" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>1.511466990529703</v>
+        <v>1.511466990529702</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33807,7 +33807,7 @@
         <v>4183</v>
       </c>
       <c r="B4183">
-        <v>0.586564099618363</v>
+        <v>0.5865640996183629</v>
       </c>
     </row>
     <row r="4184" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>0.6550870391677721</v>
+        <v>0.655087039167772</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -34191,7 +34191,7 @@
         <v>4231</v>
       </c>
       <c r="B4231">
-        <v>2.075564264324287</v>
+        <v>2.075564264324286</v>
       </c>
     </row>
     <row r="4232" spans="1:2">
@@ -34207,7 +34207,7 @@
         <v>4233</v>
       </c>
       <c r="B4233">
-        <v>0.9229774141873346</v>
+        <v>0.9229774141873344</v>
       </c>
     </row>
     <row r="4234" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>0.495339877414246</v>
+        <v>0.4953398774142459</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34991,7 +34991,7 @@
         <v>4331</v>
       </c>
       <c r="B4331">
-        <v>0.7556162668493868</v>
+        <v>0.7556162668493867</v>
       </c>
     </row>
     <row r="4332" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>0.5800872296639472</v>
+        <v>0.5800872296639471</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35151,7 +35151,7 @@
         <v>4351</v>
       </c>
       <c r="B4351">
-        <v>0.2932673962572484</v>
+        <v>0.2932673962572483</v>
       </c>
     </row>
     <row r="4352" spans="1:2">
@@ -35943,7 +35943,7 @@
         <v>4450</v>
       </c>
       <c r="B4450">
-        <v>0.5005301655089385</v>
+        <v>0.5005301655089384</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>0.6821462881673741</v>
+        <v>0.682146288167374</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>0.5582710215459967</v>
+        <v>0.5582710215459966</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -37071,7 +37071,7 @@
         <v>4591</v>
       </c>
       <c r="B4591">
-        <v>2.217252388675501</v>
+        <v>2.2172523886755</v>
       </c>
     </row>
     <row r="4592" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>0.5951833188653931</v>
+        <v>0.595183318865393</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37447,7 +37447,7 @@
         <v>4638</v>
       </c>
       <c r="B4638">
-        <v>0.5080591604921484</v>
+        <v>0.5080591604921483</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>0.6276145600036577</v>
+        <v>0.6276145600036576</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>0.2815612597599983</v>
+        <v>0.2815612597599982</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>0.8684368938924583</v>
+        <v>0.8684368938924582</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>0.3950011459077612</v>
+        <v>0.3950011459077611</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>0.5423162342012731</v>
+        <v>0.542316234201273</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>0.8617402206590465</v>
+        <v>0.8617402206590464</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39191,7 +39191,7 @@
         <v>4856</v>
       </c>
       <c r="B4856">
-        <v>0.6745469561348855</v>
+        <v>0.6745469561348854</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>0.3803153561604412</v>
+        <v>0.3803153561604411</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39759,7 +39759,7 @@
         <v>4927</v>
       </c>
       <c r="B4927">
-        <v>0.7622220880608135</v>
+        <v>0.7622220880608134</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39847,7 +39847,7 @@
         <v>4938</v>
       </c>
       <c r="B4938">
-        <v>0.3732171756040634</v>
+        <v>0.3732171756040633</v>
       </c>
     </row>
     <row r="4939" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>0.7478410921937012</v>
+        <v>0.7478410921937011</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>0.3121909932236115</v>
+        <v>0.3121909932236114</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>32.585689575639</v>
+        <v>32.58568957563899</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>0.8959943636577846</v>
+        <v>0.8959943636577845</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -41119,7 +41119,7 @@
         <v>5097</v>
       </c>
       <c r="B5097">
-        <v>0.7736342743062863</v>
+        <v>0.7736342743062862</v>
       </c>
     </row>
     <row r="5098" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>0.4739281073296481</v>
+        <v>0.473928107329648</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -42039,7 +42039,7 @@
         <v>5212</v>
       </c>
       <c r="B5212">
-        <v>10.93931612459271</v>
+        <v>10.9393161245927</v>
       </c>
     </row>
     <row r="5213" spans="1:2">
@@ -42103,7 +42103,7 @@
         <v>5220</v>
       </c>
       <c r="B5220">
-        <v>0.7305792080165481</v>
+        <v>0.730579208016548</v>
       </c>
     </row>
     <row r="5221" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>0.7456547822452877</v>
+        <v>0.7456547822452876</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -43047,7 +43047,7 @@
         <v>5338</v>
       </c>
       <c r="B5338">
-        <v>0.4018590082124367</v>
+        <v>0.4018590082124366</v>
       </c>
     </row>
     <row r="5339" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>0.6908475673052294</v>
+        <v>0.6908475673052293</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43263,7 +43263,7 @@
         <v>5365</v>
       </c>
       <c r="B5365">
-        <v>0.6829082728678936</v>
+        <v>0.6829082728678935</v>
       </c>
     </row>
     <row r="5366" spans="1:2">
@@ -43591,7 +43591,7 @@
         <v>5406</v>
       </c>
       <c r="B5406">
-        <v>0.4556082367029274</v>
+        <v>0.4556082367029273</v>
       </c>
     </row>
     <row r="5407" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>0.3689412691499944</v>
+        <v>0.3689412691499943</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -44007,7 +44007,7 @@
         <v>5458</v>
       </c>
       <c r="B5458">
-        <v>0.7086252565104266</v>
+        <v>0.7086252565104265</v>
       </c>
     </row>
     <row r="5459" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>0.7147592333496087</v>
+        <v>0.7147592333496086</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44191,7 +44191,7 @@
         <v>5481</v>
       </c>
       <c r="B5481">
-        <v>0.9370418933326926</v>
+        <v>0.9370418933326924</v>
       </c>
     </row>
     <row r="5482" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>0.7549949562474247</v>
+        <v>0.7549949562474246</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44215,7 +44215,7 @@
         <v>5484</v>
       </c>
       <c r="B5484">
-        <v>0.8446512483947035</v>
+        <v>0.8446512483947034</v>
       </c>
     </row>
     <row r="5485" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>0.2742412244273539</v>
+        <v>0.2742412244273538</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44391,7 +44391,7 @@
         <v>5506</v>
       </c>
       <c r="B5506">
-        <v>0.4899327167509442</v>
+        <v>0.4899327167509441</v>
       </c>
     </row>
     <row r="5507" spans="1:2">
@@ -44623,7 +44623,7 @@
         <v>5535</v>
       </c>
       <c r="B5535">
-        <v>0.1306460868275705</v>
+        <v>0.1306460868275704</v>
       </c>
     </row>
     <row r="5536" spans="1:2">
@@ -44759,7 +44759,7 @@
         <v>5552</v>
       </c>
       <c r="B5552">
-        <v>1.819719108993706</v>
+        <v>1.819719108993705</v>
       </c>
     </row>
     <row r="5553" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>0.3467997521791297</v>
+        <v>0.3467997521791296</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>0.7906968701771497</v>
+        <v>0.7906968701771496</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>0.6984967214142905</v>
+        <v>0.6984967214142904</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>0.856974885570413</v>
+        <v>0.8569748855704129</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>1.084043395614837</v>
+        <v>1.084043395614836</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46855,7 +46855,7 @@
         <v>5814</v>
       </c>
       <c r="B5814">
-        <v>0.3213729088648714</v>
+        <v>0.3213729088648713</v>
       </c>
     </row>
     <row r="5815" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>0.517038857116732</v>
+        <v>0.5170388571167319</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -47063,7 +47063,7 @@
         <v>5840</v>
       </c>
       <c r="B5840">
-        <v>0.6229312848058494</v>
+        <v>0.6229312848058493</v>
       </c>
     </row>
     <row r="5841" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>0.964962771185959</v>
+        <v>0.9649627711859587</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47111,7 +47111,7 @@
         <v>5846</v>
       </c>
       <c r="B5846">
-        <v>0.6635978221304976</v>
+        <v>0.6635978221304975</v>
       </c>
     </row>
     <row r="5847" spans="1:2">
@@ -47119,7 +47119,7 @@
         <v>5847</v>
       </c>
       <c r="B5847">
-        <v>0.5134428754723573</v>
+        <v>0.5134428754723572</v>
       </c>
     </row>
     <row r="5848" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>0.745613752299875</v>
+        <v>0.7456137522998749</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47591,7 +47591,7 @@
         <v>5906</v>
       </c>
       <c r="B5906">
-        <v>9.489816074477558</v>
+        <v>9.489816074477556</v>
       </c>
     </row>
     <row r="5907" spans="1:2">
@@ -47631,7 +47631,7 @@
         <v>5911</v>
       </c>
       <c r="B5911">
-        <v>8.441911268640052</v>
+        <v>8.44191126864005</v>
       </c>
     </row>
     <row r="5912" spans="1:2">
@@ -47655,7 +47655,7 @@
         <v>5914</v>
       </c>
       <c r="B5914">
-        <v>0.8706583723655112</v>
+        <v>0.8706583723655111</v>
       </c>
     </row>
     <row r="5915" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>0.7923322065728802</v>
+        <v>0.7923322065728801</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47687,7 +47687,7 @@
         <v>5918</v>
       </c>
       <c r="B5918">
-        <v>0.3188378443804508</v>
+        <v>0.3188378443804507</v>
       </c>
     </row>
     <row r="5919" spans="1:2">
@@ -47791,7 +47791,7 @@
         <v>5931</v>
       </c>
       <c r="B5931">
-        <v>68.02794256511014</v>
+        <v>68.02794256511012</v>
       </c>
     </row>
     <row r="5932" spans="1:2">
@@ -47807,7 +47807,7 @@
         <v>5933</v>
       </c>
       <c r="B5933">
-        <v>45.47203926448548</v>
+        <v>45.47203926448547</v>
       </c>
     </row>
     <row r="5934" spans="1:2">
@@ -48007,7 +48007,7 @@
         <v>5958</v>
       </c>
       <c r="B5958">
-        <v>45.45613869528291</v>
+        <v>45.4561386952829</v>
       </c>
     </row>
     <row r="5959" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>0.968799071082036</v>
+        <v>0.9687990710820358</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48183,7 +48183,7 @@
         <v>5980</v>
       </c>
       <c r="B5980">
-        <v>1.363023578737345</v>
+        <v>1.363023578737344</v>
       </c>
     </row>
     <row r="5981" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>1.896445106915246</v>
+        <v>1.896445106915245</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48431,7 +48431,7 @@
         <v>6011</v>
       </c>
       <c r="B6011">
-        <v>0.6269991108224687</v>
+        <v>0.6269991108224686</v>
       </c>
     </row>
     <row r="6012" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>0.8857163623319312</v>
+        <v>0.8857163623319311</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48639,7 +48639,7 @@
         <v>6037</v>
       </c>
       <c r="B6037">
-        <v>0.7220098108460903</v>
+        <v>0.7220098108460902</v>
       </c>
     </row>
     <row r="6038" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>0.6477690553323984</v>
+        <v>0.6477690553323983</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -48799,7 +48799,7 @@
         <v>6057</v>
       </c>
       <c r="B6057">
-        <v>0.9688342396066754</v>
+        <v>0.9688342396066753</v>
       </c>
     </row>
     <row r="6058" spans="1:2">
@@ -48815,7 +48815,7 @@
         <v>6059</v>
       </c>
       <c r="B6059">
-        <v>0.8365624877276503</v>
+        <v>0.8365624877276502</v>
       </c>
     </row>
     <row r="6060" spans="1:2">
@@ -48967,7 +48967,7 @@
         <v>6078</v>
       </c>
       <c r="B6078">
-        <v>7.075408936673797</v>
+        <v>7.075408936673796</v>
       </c>
     </row>
     <row r="6079" spans="1:2">
@@ -49015,7 +49015,7 @@
         <v>6084</v>
       </c>
       <c r="B6084">
-        <v>0.6655613980895285</v>
+        <v>0.6655613980895284</v>
       </c>
     </row>
     <row r="6085" spans="1:2">
@@ -49215,7 +49215,7 @@
         <v>6109</v>
       </c>
       <c r="B6109">
-        <v>0.0607193370029735</v>
+        <v>0.0607193370029734</v>
       </c>
     </row>
     <row r="6110" spans="1:2">
@@ -49343,7 +49343,7 @@
         <v>6125</v>
       </c>
       <c r="B6125">
-        <v>0.4866503211179371</v>
+        <v>0.486650321117937</v>
       </c>
     </row>
     <row r="6126" spans="1:2">
@@ -49567,7 +49567,7 @@
         <v>6153</v>
       </c>
       <c r="B6153">
-        <v>1.595965232396542</v>
+        <v>1.595965232396541</v>
       </c>
     </row>
     <row r="6154" spans="1:2">
@@ -49767,7 +49767,7 @@
         <v>6178</v>
       </c>
       <c r="B6178">
-        <v>0.7761781309218667</v>
+        <v>0.7761781309218666</v>
       </c>
     </row>
     <row r="6179" spans="1:2">
@@ -49783,7 +49783,7 @@
         <v>6180</v>
       </c>
       <c r="B6180">
-        <v>0.4201378488937448</v>
+        <v>0.4201378488937447</v>
       </c>
     </row>
     <row r="6181" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>0.9890297648808286</v>
+        <v>0.9890297648808284</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -49991,7 +49991,7 @@
         <v>6206</v>
       </c>
       <c r="B6206">
-        <v>0.7235601566406088</v>
+        <v>0.7235601566406087</v>
       </c>
     </row>
     <row r="6207" spans="1:2">
@@ -50127,7 +50127,7 @@
         <v>6223</v>
       </c>
       <c r="B6223">
-        <v>6.32183537496388</v>
+        <v>6.321835374963879</v>
       </c>
     </row>
     <row r="6224" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>0.0760648296583202</v>
+        <v>0.07606482965832009</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50319,7 +50319,7 @@
         <v>6247</v>
       </c>
       <c r="B6247">
-        <v>1.093087567867926</v>
+        <v>1.093087567867925</v>
       </c>
     </row>
     <row r="6248" spans="1:2">
@@ -50463,7 +50463,7 @@
         <v>6265</v>
       </c>
       <c r="B6265">
-        <v>0.518639024987823</v>
+        <v>0.5186390249878229</v>
       </c>
     </row>
     <row r="6266" spans="1:2">
@@ -50551,7 +50551,7 @@
         <v>6276</v>
       </c>
       <c r="B6276">
-        <v>0.6430037202437648</v>
+        <v>0.6430037202437647</v>
       </c>
     </row>
     <row r="6277" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>0.3953205933399021</v>
+        <v>0.395320593339902</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>0.9068907448752134</v>
+        <v>0.9068907448752132</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -51799,7 +51799,7 @@
         <v>6432</v>
       </c>
       <c r="B6432">
-        <v>0.4484895411738433</v>
+        <v>0.4484895411738432</v>
       </c>
     </row>
     <row r="6433" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>0.7886512343272936</v>
+        <v>0.7886512343272934</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52199,7 +52199,7 @@
         <v>6482</v>
       </c>
       <c r="B6482">
-        <v>0.8711800388143285</v>
+        <v>0.8711800388143284</v>
       </c>
     </row>
     <row r="6483" spans="1:2">
@@ -52231,7 +52231,7 @@
         <v>6486</v>
       </c>
       <c r="B6486">
-        <v>48.66552740184905</v>
+        <v>48.66552740184904</v>
       </c>
     </row>
     <row r="6487" spans="1:2">
@@ -52279,7 +52279,7 @@
         <v>6492</v>
       </c>
       <c r="B6492">
-        <v>0.377572211238571</v>
+        <v>0.3775722112385709</v>
       </c>
     </row>
     <row r="6493" spans="1:2">
@@ -52471,7 +52471,7 @@
         <v>6516</v>
       </c>
       <c r="B6516">
-        <v>0.8384762416101089</v>
+        <v>0.8384762416101088</v>
       </c>
     </row>
     <row r="6517" spans="1:2">
@@ -52863,7 +52863,7 @@
         <v>6565</v>
       </c>
       <c r="B6565">
-        <v>0.7555254148274018</v>
+        <v>0.7555254148274017</v>
       </c>
     </row>
     <row r="6566" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>0.8744858801304284</v>
+        <v>0.8744858801304283</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>0.837224828275025</v>
+        <v>0.8372248282750249</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>7.880240623045584</v>
+        <v>7.880240623045583</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>0.4783124500680218</v>
+        <v>0.4783124500680217</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53615,7 +53615,7 @@
         <v>6659</v>
       </c>
       <c r="B6659">
-        <v>0.7392394572089908</v>
+        <v>0.7392394572089906</v>
       </c>
     </row>
     <row r="6660" spans="1:2">
@@ -54167,7 +54167,7 @@
         <v>6728</v>
       </c>
       <c r="B6728">
-        <v>55.71670229433594</v>
+        <v>55.71670229433593</v>
       </c>
     </row>
     <row r="6729" spans="1:2">
@@ -54215,7 +54215,7 @@
         <v>6734</v>
       </c>
       <c r="B6734">
-        <v>0.7135576420910972</v>
+        <v>0.7135576420910971</v>
       </c>
     </row>
     <row r="6735" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>9.429543084666467</v>
+        <v>9.429543084666465</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -54431,7 +54431,7 @@
         <v>6761</v>
       </c>
       <c r="B6761">
-        <v>0.4829957252658301</v>
+        <v>0.48299572526583</v>
       </c>
     </row>
     <row r="6762" spans="1:2">
@@ -54479,7 +54479,7 @@
         <v>6767</v>
       </c>
       <c r="B6767">
-        <v>37.80088870861764</v>
+        <v>37.80088870861763</v>
       </c>
     </row>
     <row r="6768" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>17.3540843259161</v>
+        <v>17.35408432591609</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>0.8684368938924583</v>
+        <v>0.8684368938924582</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54791,7 +54791,7 @@
         <v>6806</v>
       </c>
       <c r="B6806">
-        <v>0.6534868712966811</v>
+        <v>0.653486871296681</v>
       </c>
     </row>
     <row r="6807" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>5.845005864351484</v>
+        <v>5.845005864351483</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>0.7612608150540043</v>
+        <v>0.7612608150540042</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55479,7 +55479,7 @@
         <v>6892</v>
       </c>
       <c r="B6892">
-        <v>48.56777941832433</v>
+        <v>48.56777941832432</v>
       </c>
     </row>
     <row r="6893" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>81.63218295135432</v>
+        <v>81.63218295135431</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>38.86590886311297</v>
+        <v>38.86590886311296</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55743,7 +55743,7 @@
         <v>6925</v>
       </c>
       <c r="B6925">
-        <v>0.8450556864280561</v>
+        <v>0.845055686428056</v>
       </c>
     </row>
     <row r="6926" spans="1:2">
@@ -55791,7 +55791,7 @@
         <v>6931</v>
       </c>
       <c r="B6931">
-        <v>0.5552729048204911</v>
+        <v>0.555272904820491</v>
       </c>
     </row>
     <row r="6932" spans="1:2">
@@ -55799,7 +55799,7 @@
         <v>6932</v>
       </c>
       <c r="B6932">
-        <v>0.6665384969324254</v>
+        <v>0.6665384969324253</v>
       </c>
     </row>
     <row r="6933" spans="1:2">
@@ -55815,7 +55815,7 @@
         <v>6934</v>
       </c>
       <c r="B6934">
-        <v>0.6187872603191779</v>
+        <v>0.6187872603191777</v>
       </c>
     </row>
     <row r="6935" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>0.8519194101535048</v>
+        <v>0.8519194101535047</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>0.4246540735995161</v>
+        <v>0.424654073599516</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -56207,7 +56207,7 @@
         <v>6983</v>
       </c>
       <c r="B6983">
-        <v>75.52571082915073</v>
+        <v>75.52571082915071</v>
       </c>
     </row>
     <row r="6984" spans="1:2">
@@ -56327,7 +56327,7 @@
         <v>6998</v>
       </c>
       <c r="B6998">
-        <v>0.7266256797050065</v>
+        <v>0.7266256797050064</v>
       </c>
     </row>
     <row r="6999" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>0.5256170464183496</v>
+        <v>0.5256170464183495</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -56391,7 +56391,7 @@
         <v>7006</v>
       </c>
       <c r="B7006">
-        <v>0.6931686899314273</v>
+        <v>0.6931686899314272</v>
       </c>
     </row>
     <row r="7007" spans="1:2">
@@ -56399,7 +56399,7 @@
         <v>7007</v>
       </c>
       <c r="B7007">
-        <v>9.769757530606876</v>
+        <v>9.769757530606874</v>
       </c>
     </row>
     <row r="7008" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>84.26678022192512</v>
+        <v>84.2667802219251</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56591,7 +56591,7 @@
         <v>7031</v>
       </c>
       <c r="B7031">
-        <v>0.7647337068621413</v>
+        <v>0.7647337068621411</v>
       </c>
     </row>
     <row r="7032" spans="1:2">
@@ -56647,7 +56647,7 @@
         <v>7038</v>
       </c>
       <c r="B7038">
-        <v>65.76449045790007</v>
+        <v>65.76449045790005</v>
       </c>
     </row>
     <row r="7039" spans="1:2">
@@ -56727,7 +56727,7 @@
         <v>7048</v>
       </c>
       <c r="B7048">
-        <v>0.5095684763412544</v>
+        <v>0.5095684763412542</v>
       </c>
     </row>
     <row r="7049" spans="1:2">
@@ -56735,7 +56735,7 @@
         <v>7049</v>
       </c>
       <c r="B7049">
-        <v>0.0857437937811498</v>
+        <v>0.0857437937811497</v>
       </c>
     </row>
     <row r="7050" spans="1:2">
@@ -57007,7 +57007,7 @@
         <v>7083</v>
       </c>
       <c r="B7083">
-        <v>9.573253399184445</v>
+        <v>9.57325339918444</v>
       </c>
     </row>
     <row r="7084" spans="1:2">
@@ -57087,7 +57087,7 @@
         <v>7093</v>
       </c>
       <c r="B7093">
-        <v>0.8442438796509641</v>
+        <v>0.844243879650964</v>
       </c>
     </row>
     <row r="7094" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>0.9437385665661044</v>
+        <v>0.9437385665661042</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57559,7 +57559,7 @@
         <v>7152</v>
       </c>
       <c r="B7152">
-        <v>7.322174751226649</v>
+        <v>7.322174751226648</v>
       </c>
     </row>
     <row r="7153" spans="1:2">
@@ -57615,7 +57615,7 @@
         <v>7159</v>
       </c>
       <c r="B7159">
-        <v>63.68785355357427</v>
+        <v>63.68785355357426</v>
       </c>
     </row>
     <row r="7160" spans="1:2">
@@ -57759,7 +57759,7 @@
         <v>7177</v>
       </c>
       <c r="B7177">
-        <v>81.18917676931383</v>
+        <v>81.18917676931382</v>
       </c>
     </row>
     <row r="7178" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>60.39125276732329</v>
+        <v>60.39125276732328</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -57935,7 +57935,7 @@
         <v>7199</v>
       </c>
       <c r="B7199">
-        <v>91.33793376711756</v>
+        <v>91.33793376711753</v>
       </c>
     </row>
     <row r="7200" spans="1:2">
@@ -57975,7 +57975,7 @@
         <v>7204</v>
       </c>
       <c r="B7204">
-        <v>188.3072275421129</v>
+        <v>188.3072275421128</v>
       </c>
     </row>
     <row r="7205" spans="1:2">
@@ -58047,7 +58047,7 @@
         <v>7213</v>
       </c>
       <c r="B7213">
-        <v>5.866628645583918</v>
+        <v>5.866628645583917</v>
       </c>
     </row>
     <row r="7214" spans="1:2">
@@ -58191,7 +58191,7 @@
         <v>7231</v>
       </c>
       <c r="B7231">
-        <v>466.1878081275633</v>
+        <v>466.1878081275632</v>
       </c>
     </row>
     <row r="7232" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>0.6937401784568169</v>
+        <v>0.6937401784568168</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58279,7 +58279,7 @@
         <v>7242</v>
       </c>
       <c r="B7242">
-        <v>2.955814851785184</v>
+        <v>2.955814851785183</v>
       </c>
     </row>
     <row r="7243" spans="1:2">
@@ -58415,7 +58415,7 @@
         <v>7259</v>
       </c>
       <c r="B7259">
-        <v>6.970372276417571</v>
+        <v>6.97037227641757</v>
       </c>
     </row>
     <row r="7260" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>0.4597610533207587</v>
+        <v>0.4597610533207586</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58487,7 +58487,7 @@
         <v>7268</v>
       </c>
       <c r="B7268">
-        <v>0.5119130446505451</v>
+        <v>0.511913044650545</v>
       </c>
     </row>
     <row r="7269" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>354.532724605248</v>
+        <v>354.5327246052479</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58575,7 +58575,7 @@
         <v>7279</v>
       </c>
       <c r="B7279">
-        <v>209.5627907631043</v>
+        <v>209.5627907631042</v>
       </c>
     </row>
     <row r="7280" spans="1:2">
@@ -58679,7 +58679,7 @@
         <v>7292</v>
       </c>
       <c r="B7292">
-        <v>0.6535091446956194</v>
+        <v>0.6535091446956193</v>
       </c>
     </row>
     <row r="7293" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>0.8150071128341084</v>
+        <v>0.8150071128341083</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>3.133852577061565</v>
+        <v>3.133852577061564</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59287,7 +59287,7 @@
         <v>7368</v>
       </c>
       <c r="B7368">
-        <v>45.64075293466685</v>
+        <v>45.64075293466684</v>
       </c>
     </row>
     <row r="7369" spans="1:2">
@@ -59295,7 +59295,7 @@
         <v>7369</v>
       </c>
       <c r="B7369">
-        <v>46.33145396645275</v>
+        <v>46.33145396645274</v>
       </c>
     </row>
     <row r="7370" spans="1:2">
@@ -59335,7 +59335,7 @@
         <v>7374</v>
       </c>
       <c r="B7374">
-        <v>50.38890526830361</v>
+        <v>50.3889052683036</v>
       </c>
     </row>
     <row r="7375" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>44.6028623662204</v>
+        <v>44.60286236622039</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>36.09718177027803</v>
+        <v>36.09718177027802</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59607,7 +59607,7 @@
         <v>7408</v>
       </c>
       <c r="B7408">
-        <v>9.701545246358448</v>
+        <v>9.701545246358446</v>
       </c>
     </row>
     <row r="7409" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>533.5888717409769</v>
+        <v>533.5888717409767</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>156.0535874532772</v>
+        <v>156.0535874532771</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>4.417445112190525</v>
+        <v>4.417445112190524</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59823,7 +59823,7 @@
         <v>7435</v>
       </c>
       <c r="B7435">
-        <v>60.72265749784154</v>
+        <v>60.72265749784153</v>
       </c>
     </row>
     <row r="7436" spans="1:2">
@@ -59911,7 +59911,7 @@
         <v>7446</v>
       </c>
       <c r="B7446">
-        <v>239.2180630231685</v>
+        <v>239.2180630231684</v>
       </c>
     </row>
     <row r="7447" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>87.67255290078785</v>
+        <v>87.67255290078784</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60087,7 +60087,7 @@
         <v>7468</v>
       </c>
       <c r="B7468">
-        <v>80.75065457416486</v>
+        <v>80.75065457416484</v>
       </c>
     </row>
     <row r="7469" spans="1:2">
@@ -60175,7 +60175,7 @@
         <v>7479</v>
       </c>
       <c r="B7479">
-        <v>0.4416023717653017</v>
+        <v>0.4416023717653016</v>
       </c>
     </row>
     <row r="7480" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>0.5585391815463717</v>
+        <v>0.5585391815463716</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60247,7 +60247,7 @@
         <v>7488</v>
       </c>
       <c r="B7488">
-        <v>4.867470345606954</v>
+        <v>4.867470345606953</v>
       </c>
     </row>
     <row r="7489" spans="1:2">
@@ -60279,7 +60279,7 @@
         <v>7492</v>
       </c>
       <c r="B7492">
-        <v>38.03534553954672</v>
+        <v>38.03534553954671</v>
       </c>
     </row>
     <row r="7493" spans="1:2">
@@ -60287,7 +60287,7 @@
         <v>7493</v>
       </c>
       <c r="B7493">
-        <v>40.71548018810472</v>
+        <v>40.71548018810471</v>
       </c>
     </row>
     <row r="7494" spans="1:2">
@@ -60343,7 +60343,7 @@
         <v>7500</v>
       </c>
       <c r="B7500">
-        <v>11.98038065238786</v>
+        <v>11.98038065238785</v>
       </c>
     </row>
     <row r="7501" spans="1:2">
@@ -60351,7 +60351,7 @@
         <v>7501</v>
       </c>
       <c r="B7501">
-        <v>8.378988916639461</v>
+        <v>8.378988916639459</v>
       </c>
     </row>
     <row r="7502" spans="1:2">
@@ -60519,7 +60519,7 @@
         <v>7522</v>
       </c>
       <c r="B7522">
-        <v>0.8212964173237809</v>
+        <v>0.8212964173237808</v>
       </c>
     </row>
     <row r="7523" spans="1:2">
@@ -60527,7 +60527,7 @@
         <v>7523</v>
       </c>
       <c r="B7523">
-        <v>0.1758449677651165</v>
+        <v>0.1758449677651164</v>
       </c>
     </row>
     <row r="7524" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>78.66633334720537</v>
+        <v>78.66633334720535</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>87.26556514939884</v>
+        <v>87.26556514939882</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60735,7 +60735,7 @@
         <v>7549</v>
       </c>
       <c r="B7549">
-        <v>0.9635472380692248</v>
+        <v>0.9635472380692246</v>
       </c>
     </row>
     <row r="7550" spans="1:2">
@@ -60919,7 +60919,7 @@
         <v>7572</v>
       </c>
       <c r="B7572">
-        <v>6.717109076937597</v>
+        <v>6.717109076937596</v>
       </c>
     </row>
     <row r="7573" spans="1:2">
@@ -60943,7 +60943,7 @@
         <v>7575</v>
       </c>
       <c r="B7575">
-        <v>0.8160413605295442</v>
+        <v>0.8160413605295441</v>
       </c>
     </row>
     <row r="7576" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>56.64931295356408</v>
+        <v>56.64931295356406</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>56.52760055120802</v>
+        <v>56.52760055120801</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61135,7 +61135,7 @@
         <v>7599</v>
       </c>
       <c r="B7599">
-        <v>27.37609103020918</v>
+        <v>27.37609103020917</v>
       </c>
     </row>
     <row r="7600" spans="1:2">
@@ -61143,7 +61143,7 @@
         <v>7600</v>
       </c>
       <c r="B7600">
-        <v>47.8031101870907</v>
+        <v>47.80311018709069</v>
       </c>
     </row>
     <row r="7601" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>85.82702595612962</v>
+        <v>85.8270259561296</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>12.28837486833784</v>
+        <v>12.28837486833783</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>45.31306141420845</v>
+        <v>45.31306141420843</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>78.89404954424523</v>
+        <v>78.89404954424522</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>137.1947591864583</v>
+        <v>137.1947591864582</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>47.29495431315579</v>
+        <v>47.29495431315578</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61487,7 +61487,7 @@
         <v>7643</v>
       </c>
       <c r="B7643">
-        <v>97.6228421912101</v>
+        <v>97.62284219121008</v>
       </c>
     </row>
     <row r="7644" spans="1:2">
@@ -61495,7 +61495,7 @@
         <v>7644</v>
       </c>
       <c r="B7644">
-        <v>85.92139483057858</v>
+        <v>85.92139483057856</v>
       </c>
     </row>
     <row r="7645" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>37.11223038197121</v>
+        <v>37.1122303819712</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>35.05409212160573</v>
+        <v>35.05409212160572</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>269.2106600487319</v>
+        <v>269.2106600487318</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62039,7 +62039,7 @@
         <v>7712</v>
       </c>
       <c r="B7712">
-        <v>272.8377072232047</v>
+        <v>272.8377072232046</v>
       </c>
     </row>
     <row r="7713" spans="1:2">
@@ -62135,7 +62135,7 @@
         <v>7724</v>
       </c>
       <c r="B7724">
-        <v>192.5954429798057</v>
+        <v>192.5954429798056</v>
       </c>
     </row>
     <row r="7725" spans="1:2">
@@ -62255,7 +62255,7 @@
         <v>7739</v>
       </c>
       <c r="B7739">
-        <v>281.6494741426354</v>
+        <v>281.6494741426353</v>
       </c>
     </row>
     <row r="7740" spans="1:2">
@@ -62263,7 +62263,7 @@
         <v>7740</v>
       </c>
       <c r="B7740">
-        <v>277.6771892846195</v>
+        <v>277.6771892846194</v>
       </c>
     </row>
     <row r="7741" spans="1:2">
@@ -62359,7 +62359,7 @@
         <v>7752</v>
       </c>
       <c r="B7752">
-        <v>296.8032983386976</v>
+        <v>296.8032983386975</v>
       </c>
     </row>
     <row r="7753" spans="1:2">
@@ -62431,7 +62431,7 @@
         <v>7761</v>
       </c>
       <c r="B7761">
-        <v>325.4700419853571</v>
+        <v>325.470041985357</v>
       </c>
     </row>
     <row r="7762" spans="1:2">
@@ -62439,7 +62439,7 @@
         <v>7762</v>
       </c>
       <c r="B7762">
-        <v>205.2593356314011</v>
+        <v>205.259335631401</v>
       </c>
     </row>
     <row r="7763" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>237.5727622121237</v>
+        <v>237.5727622121236</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62503,7 +62503,7 @@
         <v>7770</v>
       </c>
       <c r="B7770">
-        <v>280.8367881524275</v>
+        <v>280.8367881524274</v>
       </c>
     </row>
     <row r="7771" spans="1:2">
@@ -62551,7 +62551,7 @@
         <v>7776</v>
       </c>
       <c r="B7776">
-        <v>236.584233598719</v>
+        <v>236.5842335987189</v>
       </c>
     </row>
     <row r="7777" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>488.916053317828</v>
+        <v>488.9160533178279</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>301.7816960724378</v>
+        <v>301.7816960724377</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>222.0567022122761</v>
+        <v>222.056702212276</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62663,7 +62663,7 @@
         <v>7790</v>
       </c>
       <c r="B7790">
-        <v>205.0181381665828</v>
+        <v>205.0181381665827</v>
       </c>
     </row>
     <row r="7791" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>456.717217513222</v>
+        <v>456.7172175132219</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -63079,7 +63079,7 @@
         <v>7842</v>
       </c>
       <c r="B7842">
-        <v>375.7519470174454</v>
+        <v>375.7519470174453</v>
       </c>
     </row>
     <row r="7843" spans="1:2">
@@ -63111,7 +63111,7 @@
         <v>7846</v>
       </c>
       <c r="B7846">
-        <v>277.1042354040366</v>
+        <v>277.1042354040365</v>
       </c>
     </row>
     <row r="7847" spans="1:2">
@@ -63279,7 +63279,7 @@
         <v>7867</v>
       </c>
       <c r="B7867">
-        <v>249.7006279340075</v>
+        <v>249.7006279340074</v>
       </c>
     </row>
     <row r="7868" spans="1:2">
@@ -63423,7 +63423,7 @@
         <v>7885</v>
       </c>
       <c r="B7885">
-        <v>247.4093985537531</v>
+        <v>247.409398553753</v>
       </c>
     </row>
     <row r="7886" spans="1:2">
@@ -63463,7 +63463,7 @@
         <v>7890</v>
       </c>
       <c r="B7890">
-        <v>288.0299237253315</v>
+        <v>288.0299237253314</v>
       </c>
     </row>
     <row r="7891" spans="1:2">
@@ -63551,7 +63551,7 @@
         <v>7901</v>
       </c>
       <c r="B7901">
-        <v>150.5122002542685</v>
+        <v>150.5122002542684</v>
       </c>
     </row>
     <row r="7902" spans="1:2">
@@ -63679,7 +63679,7 @@
         <v>7917</v>
       </c>
       <c r="B7917">
-        <v>34.70019711958061</v>
+        <v>34.7001971195806</v>
       </c>
     </row>
     <row r="7918" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>99.3765792865596</v>
+        <v>99.37657928655959</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>20.02425455915962</v>
+        <v>20.02425455915961</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64023,7 +64023,7 @@
         <v>7960</v>
       </c>
       <c r="B7960">
-        <v>28.05964699007252</v>
+        <v>28.05964699007251</v>
       </c>
     </row>
     <row r="7961" spans="1:2">
@@ -64071,7 +64071,7 @@
         <v>7966</v>
       </c>
       <c r="B7966">
-        <v>53.63929461317847</v>
+        <v>53.63929461317846</v>
       </c>
     </row>
     <row r="7967" spans="1:2">
@@ -64103,7 +64103,7 @@
         <v>7970</v>
       </c>
       <c r="B7970">
-        <v>201.0435380473615</v>
+        <v>201.0435380473614</v>
       </c>
     </row>
     <row r="7971" spans="1:2">
@@ -64191,7 +64191,7 @@
         <v>7981</v>
       </c>
       <c r="B7981">
-        <v>50.12672391711717</v>
+        <v>50.12672391711716</v>
       </c>
     </row>
     <row r="7982" spans="1:2">
@@ -64415,7 +64415,7 @@
         <v>8009</v>
       </c>
       <c r="B8009">
-        <v>170.6356300529111</v>
+        <v>170.635630052911</v>
       </c>
     </row>
     <row r="8010" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>86.16854163748168</v>
+        <v>86.16854163748167</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64487,7 +64487,7 @@
         <v>8018</v>
       </c>
       <c r="B8018">
-        <v>84.76396937759333</v>
+        <v>84.7639693775933</v>
       </c>
     </row>
     <row r="8019" spans="1:2">
@@ -64519,7 +64519,7 @@
         <v>8022</v>
       </c>
       <c r="B8022">
-        <v>40.82127883306147</v>
+        <v>40.82127883306146</v>
       </c>
     </row>
     <row r="8023" spans="1:2">
@@ -64535,7 +64535,7 @@
         <v>8024</v>
       </c>
       <c r="B8024">
-        <v>7.404319632653038</v>
+        <v>7.404319632653037</v>
       </c>
     </row>
     <row r="8025" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>5.359730046404869</v>
+        <v>5.359730046404868</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -64847,7 +64847,7 @@
         <v>8063</v>
       </c>
       <c r="B8063">
-        <v>91.17381398546721</v>
+        <v>91.17381398546719</v>
       </c>
     </row>
     <row r="8064" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>55.14216583014424</v>
+        <v>55.14216583014423</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>4.513323302488584</v>
+        <v>4.513323302488583</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65255,7 +65255,7 @@
         <v>8114</v>
       </c>
       <c r="B8114">
-        <v>4.1085628909934</v>
+        <v>4.108562890993399</v>
       </c>
     </row>
     <row r="8115" spans="1:2">
@@ -65351,7 +65351,7 @@
         <v>8126</v>
       </c>
       <c r="B8126">
-        <v>0.9515694247191354</v>
+        <v>0.9515694247191352</v>
       </c>
     </row>
     <row r="8127" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>0.5851720121847216</v>
+        <v>0.5851720121847215</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65447,7 +65447,7 @@
         <v>8138</v>
       </c>
       <c r="B8138">
-        <v>2.973352222738679</v>
+        <v>2.973352222738678</v>
       </c>
     </row>
     <row r="8139" spans="1:2">
@@ -65511,7 +65511,7 @@
         <v>8146</v>
       </c>
       <c r="B8146">
-        <v>4.144581321644879</v>
+        <v>4.144581321644878</v>
       </c>
     </row>
     <row r="8147" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>0.8966068821285867</v>
+        <v>0.8966068821285866</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>0.7111104989182748</v>
+        <v>0.7111104989182747</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65679,7 +65679,7 @@
         <v>8167</v>
       </c>
       <c r="B8167">
-        <v>58.63325734978205</v>
+        <v>58.63325734978204</v>
       </c>
     </row>
     <row r="8168" spans="1:2">
@@ -65711,7 +65711,7 @@
         <v>8171</v>
       </c>
       <c r="B8171">
-        <v>1.062057206294463</v>
+        <v>1.062057206294462</v>
       </c>
     </row>
     <row r="8172" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>0.7896125073341028</v>
+        <v>0.7896125073341027</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -66135,7 +66135,7 @@
         <v>8224</v>
       </c>
       <c r="B8224">
-        <v>33.31282812966167</v>
+        <v>33.31282812966166</v>
       </c>
     </row>
     <row r="8225" spans="1:2">
@@ -66143,7 +66143,7 @@
         <v>8225</v>
       </c>
       <c r="B8225">
-        <v>75.30272772938525</v>
+        <v>75.30272772938523</v>
       </c>
     </row>
     <row r="8226" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>142.847806451197</v>
+        <v>142.8478064511969</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66231,7 +66231,7 @@
         <v>8236</v>
       </c>
       <c r="B8236">
-        <v>321.3485839686626</v>
+        <v>321.3485839686625</v>
       </c>
     </row>
     <row r="8237" spans="1:2">
@@ -66303,7 +66303,7 @@
         <v>8245</v>
       </c>
       <c r="B8245">
-        <v>60.46870265071033</v>
+        <v>60.46870265071031</v>
       </c>
     </row>
     <row r="8246" spans="1:2">
@@ -66359,7 +66359,7 @@
         <v>8252</v>
       </c>
       <c r="B8252">
-        <v>32.21992226583771</v>
+        <v>32.2199222658377</v>
       </c>
     </row>
     <row r="8253" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>96.55594638206735</v>
+        <v>96.55594638206733</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>85.87948567205001</v>
+        <v>85.87948567204998</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>38.57776141790114</v>
+        <v>38.57776141790113</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>85.31171914885138</v>
+        <v>85.31171914885137</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66591,7 +66591,7 @@
         <v>8281</v>
       </c>
       <c r="B8281">
-        <v>250.224638951134</v>
+        <v>250.2246389511339</v>
       </c>
     </row>
     <row r="8282" spans="1:2">
@@ -66767,7 +66767,7 @@
         <v>8303</v>
       </c>
       <c r="B8303">
-        <v>82.7624114119518</v>
+        <v>82.76241141195179</v>
       </c>
     </row>
     <row r="8304" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>246.2807819838683</v>
+        <v>246.2807819838682</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>256.2003574294388</v>
+        <v>256.2003574294387</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67015,7 +67015,7 @@
         <v>8334</v>
       </c>
       <c r="B8334">
-        <v>259.2154722751867</v>
+        <v>259.2154722751866</v>
       </c>
     </row>
     <row r="8335" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>515.5005272347986</v>
+        <v>515.5005272347985</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>85.07735023923391</v>
+        <v>85.07735023923388</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67127,7 +67127,7 @@
         <v>8348</v>
       </c>
       <c r="B8348">
-        <v>132.3943786630217</v>
+        <v>132.3943786630216</v>
       </c>
     </row>
     <row r="8349" spans="1:2">
@@ -67223,7 +67223,7 @@
         <v>8360</v>
       </c>
       <c r="B8360">
-        <v>370.7908404749862</v>
+        <v>370.7908404749861</v>
       </c>
     </row>
     <row r="8361" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>69.25435694059627</v>
+        <v>69.25435694059625</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67263,7 +67263,7 @@
         <v>8365</v>
       </c>
       <c r="B8365">
-        <v>38.42682983299054</v>
+        <v>38.42682983299053</v>
       </c>
     </row>
     <row r="8366" spans="1:2">
@@ -67303,7 +67303,7 @@
         <v>8370</v>
       </c>
       <c r="B8370">
-        <v>162.1333461503068</v>
+        <v>162.1333461503067</v>
       </c>
     </row>
     <row r="8371" spans="1:2">
@@ -67615,7 +67615,7 @@
         <v>8409</v>
       </c>
       <c r="B8409">
-        <v>264.6085655286328</v>
+        <v>264.6085655286327</v>
       </c>
     </row>
     <row r="8410" spans="1:2">
@@ -67903,7 +67903,7 @@
         <v>8445</v>
       </c>
       <c r="B8445">
-        <v>123.2907657418713</v>
+        <v>123.2907657418712</v>
       </c>
     </row>
     <row r="8446" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>48.74621278950291</v>
+        <v>48.7462127895029</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68159,7 +68159,7 @@
         <v>8477</v>
       </c>
       <c r="B8477">
-        <v>133.9587860059752</v>
+        <v>133.9587860059751</v>
       </c>
     </row>
     <row r="8478" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>71.04698456277612</v>
+        <v>71.0469845627761</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68519,7 +68519,7 @@
         <v>8522</v>
       </c>
       <c r="B8522">
-        <v>9.687170111912108</v>
+        <v>9.687170111912106</v>
       </c>
     </row>
     <row r="8523" spans="1:2">
@@ -68703,7 +68703,7 @@
         <v>8545</v>
       </c>
       <c r="B8545">
-        <v>413.8476651909564</v>
+        <v>413.8476651909563</v>
       </c>
     </row>
     <row r="8546" spans="1:2">
@@ -68799,7 +68799,7 @@
         <v>8557</v>
       </c>
       <c r="B8557">
-        <v>239.099076181472</v>
+        <v>239.0990761814719</v>
       </c>
     </row>
     <row r="8558" spans="1:2">
@@ -68823,7 +68823,7 @@
         <v>8560</v>
       </c>
       <c r="B8560">
-        <v>378.8365196993561</v>
+        <v>378.836519699356</v>
       </c>
     </row>
     <row r="8561" spans="1:2">
@@ -68959,7 +68959,7 @@
         <v>8577</v>
       </c>
       <c r="B8577">
-        <v>524.7129222640793</v>
+        <v>524.7129222640792</v>
       </c>
     </row>
     <row r="8578" spans="1:2">
@@ -69047,7 +69047,7 @@
         <v>8588</v>
       </c>
       <c r="B8588">
-        <v>211.8643948581273</v>
+        <v>211.8643948581272</v>
       </c>
     </row>
     <row r="8589" spans="1:2">
@@ -69087,7 +69087,7 @@
         <v>8593</v>
       </c>
       <c r="B8593">
-        <v>284.7899647787226</v>
+        <v>284.7899647787225</v>
       </c>
     </row>
     <row r="8594" spans="1:2">
@@ -69127,7 +69127,7 @@
         <v>8598</v>
       </c>
       <c r="B8598">
-        <v>338.2535076207263</v>
+        <v>338.2535076207262</v>
       </c>
     </row>
     <row r="8599" spans="1:2">
@@ -69287,7 +69287,7 @@
         <v>8618</v>
       </c>
       <c r="B8618">
-        <v>584.6890311130077</v>
+        <v>584.6890311130076</v>
       </c>
     </row>
     <row r="8619" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>549.7857357636348</v>
+        <v>549.7857357636346</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69367,7 +69367,7 @@
         <v>8628</v>
       </c>
       <c r="B8628">
-        <v>363.3673510656943</v>
+        <v>363.3673510656942</v>
       </c>
     </row>
     <row r="8629" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>312.3132038467333</v>
+        <v>312.3132038467332</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69479,7 +69479,7 @@
         <v>8642</v>
       </c>
       <c r="B8642">
-        <v>411.258675635422</v>
+        <v>411.2586756354219</v>
       </c>
     </row>
     <row r="8643" spans="1:2">
@@ -69503,7 +69503,7 @@
         <v>8645</v>
       </c>
       <c r="B8645">
-        <v>475.8055204033127</v>
+        <v>475.8055204033126</v>
       </c>
     </row>
     <row r="8646" spans="1:2">
@@ -69703,7 +69703,7 @@
         <v>8670</v>
       </c>
       <c r="B8670">
-        <v>299.6311407907409</v>
+        <v>299.6311407907408</v>
       </c>
     </row>
     <row r="8671" spans="1:2">
@@ -69807,7 +69807,7 @@
         <v>8683</v>
       </c>
       <c r="B8683">
-        <v>128.2198982340126</v>
+        <v>128.2198982340125</v>
       </c>
     </row>
     <row r="8684" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>238.5539640495619</v>
+        <v>238.5539640495618</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -69887,7 +69887,7 @@
         <v>8693</v>
       </c>
       <c r="B8693">
-        <v>273.997975465265</v>
+        <v>273.9979754652649</v>
       </c>
     </row>
     <row r="8694" spans="1:2">
@@ -70127,7 +70127,7 @@
         <v>8723</v>
       </c>
       <c r="B8723">
-        <v>351.0818131250107</v>
+        <v>351.0818131250106</v>
       </c>
     </row>
     <row r="8724" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>409.3727635016363</v>
+        <v>409.3727635016362</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70367,7 +70367,7 @@
         <v>8753</v>
       </c>
       <c r="B8753">
-        <v>410.0101930107247</v>
+        <v>410.0101930107246</v>
       </c>
     </row>
     <row r="8754" spans="1:2">
